--- a/MwProject/ListOfProjects.xlsx
+++ b/MwProject/ListOfProjects.xlsx
@@ -14,25 +14,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <x:si>
-    <x:t>OP/2019/N08</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>16.9-30 14PR TT 21KL</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>OP/2019/N09</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
+  <x:si>
+    <x:t>PP/2021/00034</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Poprawa bezpieczeństwa na prasach dętkowych 75"Eliminacja ryzyka zamknięcia prasy w przypadku awarii przekładni lub sprzęgła </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00020</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie systemu ERP (IFS)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00019</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Zarządzanie portfelem projektów
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00013</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>15.5-38 14PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00021</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>WPT60 - Mieszanka na wypełniacz naddrutówkowy</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00045</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja wydziału produkcji dętek</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00025</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>15.5-38 8PR SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00014</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zwiększenie wydajności wulkanizacji dętek</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00041</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>System dozowania ciekłego asfaltu do mikserów na PM3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00034</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -48,16 +177,1301 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>18.4-30 14PR TT 21KL</x:t>
+    <x:t>PP/2021/00053</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wymiana silników DC 1600kWna 1 silnik AC 1600kW na linii produkcji M2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00043</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wymiana miksera HIM na Buzuluk (PM1)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00021</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie systemu pomiaru grubości gumowanego kordu on-line na linii kalandra</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00014</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-26 14PR TL SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Eliminacja folii przy produkcji gumy podkładowej (kapy)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00032</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Optymalizacja procesu czyszczenia form</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.0/70-20 GTR-03</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>6.00-9 NPP 12PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00009</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>28x9-15 /8.15-15 NPP 14PR TT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00010</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>5.00-8 NPP 10PR TT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00009</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>IATF - Produkcja mieszanek</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00031</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>MIE.WNR5801</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00007</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>7.00-12 NPP 14PR TT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00010</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Dętka/Wszystkie rynki głównie Węgry, Czechy, Słowacja</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2022/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil gumowy/AMAR CENDROWSCY S.C.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2022/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Dętka rolnicza 16.0/70-20  TR-75A</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00026</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>15.5-38 10PR SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00016</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-38 12PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00060</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>13.6-36 8PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00012</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wytłoczka AKC fi 55 ( AMC336_D) -zmiana twardości mieszanki</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00013</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wytłoczka AKC fi 85 ( AKC335_D) -zmiana twardości mieszanki.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00005</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>15.0/55-17 14 PR TL</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00029</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-24 16PR TL GTR-03</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00030</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>9.00-16 12PR TT (NT-3)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00012</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>9.00-16 14PR TT (NT-3)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00033</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>12.4-28 8PR SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00036</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-28 14PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00038</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-30 16PR SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00011</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>6.50-10 NPP 14PR TT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00015</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-38 10PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00018</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>13.6-24 8PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00032</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>14.9-28 8PR SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00015</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil Gumowy/COPAL Sp. z o.o.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00016</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil Gumowy/PPHU PAMATECH Paulina Mąkol</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2022/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil Gumowy/F.H.U. WYSOTA</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>US/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Usługa cięcia rolek na IMESIE</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00020</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-38 12PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00046</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>23.1-26 14PR TL SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00047</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>23.1-26 18PR TL SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00089</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-24 14 PR TL GTR-03</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>12.5/80-15.3 14 PR TL</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00031</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>500/50-17 14PR SGP-05 (145/157A8)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00051</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Powiększenie wolumenu produkcyjnego o nowe rozmiary opon flotacyjnych 17” – 22,5”oraz OTR 20”  - 28” </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00014</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil gumowy/POL SP</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00024</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>23x5 NPP 10PR TT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00017</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-38 14PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00019</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-38 10PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00045</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>17.5L-24 14PR TL GTR-03</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00059</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>12.4-36 8PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>500/50-17 14PR [149A8] TL IMP</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00021</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-38 14PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00044</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>14.9-24 TT 14PR SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>CI/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Nadzór nad membranami. Poprawa obecnego statusu TPM. Wydłużenie żywotności membran</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>CI/2021/00007</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Parametryzacja procesu wytłaczania bieżników. Automatyzacja rejestracji danych z procesu.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00036</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zmniejszenie awarii układu grzewczo - chłodzącego na liniach wytłaczania dętek</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00027</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-26 14PR TL GTR-03</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00022</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-38 8PR TT SGP-04</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00043</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>600/50-22.5 16PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00040</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Formowanie radialne</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00030</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zaciski membranowe</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00031</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Eliminacja wycieków z pierścieni membranowych pras</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00058</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>17.5L24 12PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00041</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>550/45-22.5 16PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00039</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>15.5/80-24 14PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>7.50-18 SRF-02</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00045</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Redukcja czasów przezbrojeń metodą SMED
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00046</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Poprawa efektywności działu poprzez wdrożenie narzędzi informatycznych
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00010</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Frezarka 3 osiowa</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>CI/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Informatyzacja procesu produkcji opon</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00012</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Optymalizacja procesu wytłaczania (stabilizacja wymiarów i jakość talkowania)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00061</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Uruchomienie produkcji opon radialnych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00042</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>550/60-22.5 16PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>INF/2021/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja wodociągu wody pitnej - odcinek na połączeniu Bieżnikowni z Pompownią</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00049</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja układu do regulacji ciśnienia na PD</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>wdrożenie produkcji dętek butylowych dla firmy Continental</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PF/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie produkcji ochraniaczy dla firmy Continental</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00022</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>TPM</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Prasa I7 - uruchomienie</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00024</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Identyfikacja i identyfikowalność opon pneumatycznych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00009</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Sprzedaż opon na rynek amerykański - dodatkowa wkładka homologacyjna</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Rozbudowa linii do produkcji opon pełnych</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -73,7 +1487,407 @@
         <x:rFont val="Calibri"/>
         <x:family val="2"/>
       </x:rPr>
-      <x:t>Wymiana miksera HIM na Buzuluk (PM1)</x:t>
+      <x:t>Wulkanizacja azotem</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00033</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Rozwiązanie problemu zasprzęglania kaset w zasobnikach maszyn konfekcyjnych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>INF/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zwiększenie powierzchni magazynowej dla form i oprzyrządowania</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00040</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>500/60-22.5 16PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00021</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Poszerzenie gamy opon diagonalnych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00012</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Pakiet medyczny</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00063</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>14.9-24 IRYGACJA</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00055</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Budowa linii wytłaczania nr. 6</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00027</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>TTPO85 - mieszanka na odbojniki wewnętrzne miechów resorów</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00030</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>MIE.OBL65</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00083</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Opona 14.9-24 16 PR TT SGP-04 HD </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00011</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil gumowy do klapy/włazu - PW/142/2021</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00087</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Komplet opony 6.00-9 NPP-01 12 PR TT TR-87</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00088</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Komplet opony 6.00-9 NPP-01 12 PR TT JS-2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2022/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>10.00/10.50-16 TR-75A</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2022/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Recepturka 165x15x2,2 mm</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2022/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Profil Gumowy/GMK Łobez </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2022/00005</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil Gumowy/GUMMITECHNIK Tomasz Okrasa</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>10.00-20</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00047</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">SYSTEM LOCKOUT – TAGOUT </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>INF/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Instalacja próżni</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00023</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja LWB - odkładanie bieżników</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00023</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wspomaganie planowania produkcji mieszanek oraz analizy realizacji przyjetego planu produkcji w celu poprawy płynności realizacji zamówień Klientów</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wymiana płyt izolacyjnych pras dętkowych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00010</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>wdrożenie normy PN-ISO 45001</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00011</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>recertyfikacja zintegrowanego systemu 9001,14001, 45001</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -89,88 +1903,2282 @@
         <x:rFont val="Calibri"/>
         <x:family val="2"/>
       </x:rPr>
-      <x:t xml:space="preserve">Zarządzanie projektami (proces/wyrób)
+      <x:t>Audyt Sprawozdania Finansowego</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00050</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja napędów piłek do cięcia kordu na maszynach płaskich</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00011</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja małej maszyny płaskiej - wymiana enkodera i sterownika</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00015</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja chłodzenia LWB</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>INF/2021/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja sprężarkowni  w celu zabezpieczenia w odpowiednią ilość powietrza</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00019</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Hamulce pras dętkowych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00020</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Linki pras wulkanizacyjnych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>CI/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie w procesie produkcji bieżników pomiarów za pomocą profilometru.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00029</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modernizacja linii nr2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PF/2021/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>PW/113/2020</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00016</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Audyt TKW w oponach</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00017</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Audyt TKW w pozostałych obszarach firmy</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>INF/2021/00005</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Budowa nowej Hydroforni</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>SL 4/922 VLS</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Rozładunek dużych pras 75 cali</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00018</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wypychanie gumy z głowicy L4 i L5</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Przeniesienie maszyn do Bolechowa</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Mieszanka na bieżniki grupy T1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Mieszanka na bieżniki grupy T4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie technologii nakładania bieżnika orbitreadem</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00022</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Przewijarka do przekładek</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00025</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Usunięcie solanki z wytłaczanego profila</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00026</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Remont wytłaczarki fi 200</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00027</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Poprawa ergonomii rozładunku prasy laboratoryjnej</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00005</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>EPX80</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00028</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>dostosowanie do prawidłowego przepływu materiału podczas podawania mieszanek  w cyklu I na piętro</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00007</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Projekt lini wytłaczania nr 6 + dokumentacja wykonawcza</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PF/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie membran rozprężnych EB-1 i EB-2 do bębnów konfekcyjnych z Dębicy</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00035</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Weryfikacja efektywności i skuteczności prac działu obróbki mechanicznej</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Planowanie mieszanek - aplikacja</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wnioski Projektowe- aplikacja</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Narzędzie do zarządzania recepturami na maszynach</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00005</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Narzędzie do zgłaszania awarii i realizacji napraw</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Rozliczanie produkcji na stanowiskach pracy - opony</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00007</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Centralizacja zakupów</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Polska Strefa Inwestycji</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>CI/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>5S+1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00042</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Optymalizacja kosztów gospodarki odpadami</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00013</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>System motywacyjny dla kadry zarządczej z KPI z QPR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00014</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>System motywacyjny za realizację projektów</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00015</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Role i funkcje w organizacji - wycena finansowa</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00030</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Rozwijanie KPI dla Działu Zakupów</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00048</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>11.5/80-15.3 14PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00049</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>10.0/75-15.3 14PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00050</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>10.0/75-15.3 12PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00051</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>11.2-24 8PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00052</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-28 10PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00053</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>12.4-24 8PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00054</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>7.50-16 8PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00055</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-30 12PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00056</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>18.4-34 14PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00057</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>16.9-34 14PR TT + KAPA ITT</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>EPN65 z atestem PZH</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00007</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>EPX85</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00018</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>PW/060/2020</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>EPN47</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00009</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>SKG57</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00010</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>SKG67</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Heidenau - poprawa przepuszczalności</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00017</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>MST80</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00005</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Heidenau - LS15F</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00011</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>ZWD65</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00012</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>SBR1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00013</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>AMG73</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00014</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>ALL</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00015</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>BCE65</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00016</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>DWP75</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>PW/091/2020</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>PW/107/2020</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PF/2021/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>PW/112/2020</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00025</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wdrożenie systemu WMS w magazynie wyrobów gotowych - testowanie systemu WMS</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00024</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Raportowanie realizacji planu produkcji w Power BI</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00026</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Ciągłe doskonalenie umiejętności pracowników działu planowania. Planowanie produkcji – optymalizacja i skrócenie czasu przygotowania planu.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00028</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Poszukiwanie alternatywnych dostawców/surowców celem minimalizacji ryzyka niedoboru surowców</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00029</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Digitalizacja działań w obszarze Działu Zakupów
 </x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>PP/2021/00001</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>Modernizacja wydziału produkcji dętek</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>OP/2018/102</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>15.5-38 14PR TT SGP-04</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>OP/2018/107</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>16.9-38 12PR TT SGP-04</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>OP/2017/80</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>6.00-9 NPP 12PR</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>OP/2018/103</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF0000FF"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>18.4-38 10PR TT SGP-04</x:t>
+    <x:t>ZA/2021/00031</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>KAIZEN</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00032</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Obniżenie prawdopodobieństwa wystąpienia zagrożeń życia i zdrowia
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00033</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Identyfikacja stanowisk do szczegółowej analizy ergonomicznej (kilka stanowisk administracyjno-biurowych i kilka robotniczych)
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00034</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Digitalizacja obsługi podwykonawców i gości (rejestracja wejśc i wyjść, przepustki i rejestracja czasu podwykonawców, przeprowadzanie szkoleń bhp, zarządzanie dokumentami)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00035</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Zwiększenie komfortu pracy pracowników podczas czyszczenia form suchym lodem na hali produkcji opon
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00036</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Wdrożenie zapisów normy 45001:2018
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00037</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Podniesienie świadomości i kompetencji pracowników działających w zakładowej brygadzie strażaków
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00038</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Poprawa warunków pracy na hali wyrobów formowych - wentylacja</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00039</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Zmniejszenie kosztów gospodarki odpadami o 20%
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00040</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Utrzymanie właściwego składowania odpadów na "poligonie" zgodnie z obowiązującymi przepisami
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00041</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Nadzór nad składowanymi ilościami odpadów gumowych: mieszanki, zagumowany kord na poligonie nr 2, wykorzystanie i zagospodarowanie odpadów 
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00042</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Informatyzacja procesów (automatyzacja danych)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00043</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Informatyzacja produkcji i technologii - własne aplikacje
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00044</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zbudowanie systemu motywacyjnego - QPR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00047</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Wdrożenie automatyzacji raportowania wskaźników finansowych w QPR
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00048</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Platforma e-learningowa umożliwiająca informowanie oraz szkolenia (wew.) pracowników w systemie online
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00050</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wzrost sprzedaży (udziałów) w rynkach</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00051</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zbudowanie systemu motywacyjnego opartego na KPI</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00052</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Połacznenie działow sprzedaży Zi i Z2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00053</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Macierz BCG</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ZA/2021/00054</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Informatyzacja procesów sprzedażowych</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00052</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Automatyczne sklejanie kordu na maszynie płaskiej</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00007</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Dętki rolniczo-przemysłowe - PD/22/2021</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00008</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>710/50R26.5 - PD/21/2021</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PD/2021/00009</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>14L16.1 TR15 - PD/20/2021</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PW/2021/00006</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Profil gumowy, osłona rantu - PW/137/2021</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00023</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Mieszanka gumowa EST60</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2021/00026</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>SBR2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00064</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>15x6.00 6PR TL</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00065</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">400/60-15.5 14PR TL IMP-04
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00066</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">280/85R24 11.2R24 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00067</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>520/70R38 RADIALNA</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00068</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">460/85R38 18.4R38 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00069</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">340/85R24 13.6R24 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00070</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">320/85R24 12.4R24 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00071</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">460/85R34 18.4R34 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00072</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">380/85R24 14.9R24 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00073</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">380/85R28 14.9R28 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00074</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">16.9R34 420/85R34 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00075</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">16.9R30 420/85R30 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00076</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">480/70R34 8PR RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00077</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">480/70R30 8PR RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00078</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">16.9R38 420/85R38 RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PI/2021/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">OKG036P-TE
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00079</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">440/80-28 (16.9-28_ 12PR TL GTR-03)
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00080</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">440/80-28 (16.9-28_ 14PR TL GTR-03)
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00081</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">13.0/65-18 16PR TT IMP-03
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00082</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">11.5/80-15.3 16PR IMP-03
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2020/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">14.9R28 TL RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2020/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">14.9R24 TL RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2020/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">18.4R34 TL RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2020/00004</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">18.4R34 TL RADIALNA
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00054</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Poprawa BHP przy przezbrojeniach - Wytłaczanie Dętek</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00056</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wymiana wózków PD</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PP/2021/00057</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Zmiana przepływu materiału na konfekcji</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00084</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Opona 560/60 R 22.5
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00085</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modyfikacja istniejącego rozmiaru opony - 18x8.50-8 6PR TL/TT IMP-06 Kabat Implement Liniowa</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2021/00086</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modyfikacja istniejącego rozmiaru opony - Opona 400/60-15.5 14PR TL SGP-05 Kabat Supra Grip</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PM/2022/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>MIE.KNR55_2_F</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2022/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>11.5/80-15.3 SGP-04, 14PR</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PO/2022/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Modyfikacja istniejącego rozmiaru opony - Opona 6.00 - 18 6PR TT SRF-02 Kabat Supra Rib</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>IF/2022/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wentylacja PC.PM.PM1 (bud. C1+C2)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>IF/2022/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wentylacja PC.PD.WYT (bud. D2+D3)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>IF/2022/00003</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Wentylacja PC.PD.KON bud. D4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PF/2022/00001</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>URUCHOMIENIE PRODUKCJI MEMBRAN (STOMIL POZNAŃ)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PF/2022/00002</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">URUCHOMIENIE PRODUKCJI MEMBRAN WULKANIZACYJNYCH W STOMIL POZNAŃ </x:t>
     </x:r>
   </x:si>
 </x:sst>
@@ -522,7 +4530,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C10"/>
+  <x:dimension ref="A1:C258"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -555,10 +4563,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -566,10 +4574,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -577,10 +4585,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -588,10 +4596,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -599,10 +4607,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -610,10 +4618,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -621,10 +4629,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -632,10 +4640,2738 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="B17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="n">
         <x:v>18</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:3">
+      <x:c r="A46" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:3">
+      <x:c r="A47" s="0" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="0" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3">
+      <x:c r="A50" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:3">
+      <x:c r="A51" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:3">
+      <x:c r="A52" s="0" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:3">
+      <x:c r="A53" s="0" t="n">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3">
+      <x:c r="A54" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:3">
+      <x:c r="A55" s="0" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:3">
+      <x:c r="A57" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:3">
+      <x:c r="A58" s="0" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:3">
+      <x:c r="A59" s="0" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:3">
+      <x:c r="A60" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:3">
+      <x:c r="A61" s="0" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:3">
+      <x:c r="A62" s="0" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:3">
+      <x:c r="A63" s="0" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:3">
+      <x:c r="A64" s="0" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:3">
+      <x:c r="A65" s="0" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:3">
+      <x:c r="A66" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:3">
+      <x:c r="A67" s="0" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:3">
+      <x:c r="A68" s="0" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:3">
+      <x:c r="A69" s="0" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:3">
+      <x:c r="A70" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:3">
+      <x:c r="A71" s="0" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:3">
+      <x:c r="A72" s="0" t="n">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:3">
+      <x:c r="A73" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:3">
+      <x:c r="A74" s="0" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:3">
+      <x:c r="A75" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:3">
+      <x:c r="A76" s="0" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:3">
+      <x:c r="A77" s="0" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:3">
+      <x:c r="A78" s="0" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:3">
+      <x:c r="A79" s="0" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:3">
+      <x:c r="A80" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:3">
+      <x:c r="A81" s="0" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:3">
+      <x:c r="A82" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:3">
+      <x:c r="A83" s="0" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:3">
+      <x:c r="A84" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:3">
+      <x:c r="A85" s="0" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:3">
+      <x:c r="A86" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:3">
+      <x:c r="A87" s="0" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:3">
+      <x:c r="A88" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:3">
+      <x:c r="A89" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:3">
+      <x:c r="A90" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:3">
+      <x:c r="A91" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:3">
+      <x:c r="A92" s="0" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:3">
+      <x:c r="A93" s="0" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:3">
+      <x:c r="A94" s="0" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:3">
+      <x:c r="A95" s="0" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:3">
+      <x:c r="A96" s="0" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:3">
+      <x:c r="A97" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:3">
+      <x:c r="A98" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:3">
+      <x:c r="A99" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:3">
+      <x:c r="A100" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:3">
+      <x:c r="A101" s="0" t="n">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:3">
+      <x:c r="A102" s="0" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:3">
+      <x:c r="A103" s="0" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:3">
+      <x:c r="A104" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:3">
+      <x:c r="A105" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:3">
+      <x:c r="A106" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:3">
+      <x:c r="A107" s="0" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:3">
+      <x:c r="A108" s="0" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:3">
+      <x:c r="A109" s="0" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:3">
+      <x:c r="A110" s="0" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:3">
+      <x:c r="A111" s="0" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:3">
+      <x:c r="A112" s="0" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:3">
+      <x:c r="A113" s="0" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:3">
+      <x:c r="A114" s="0" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:3">
+      <x:c r="A115" s="0" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:3">
+      <x:c r="A116" s="0" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:3">
+      <x:c r="A117" s="0" t="n">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:3">
+      <x:c r="A118" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:3">
+      <x:c r="A119" s="0" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:3">
+      <x:c r="A120" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:3">
+      <x:c r="A121" s="0" t="n">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:3">
+      <x:c r="A122" s="0" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:3">
+      <x:c r="A123" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:3">
+      <x:c r="A124" s="0" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:3">
+      <x:c r="A125" s="0" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:3">
+      <x:c r="A126" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:3">
+      <x:c r="A127" s="0" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:3">
+      <x:c r="A128" s="0" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:3">
+      <x:c r="A129" s="0" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:3">
+      <x:c r="A130" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:3">
+      <x:c r="A131" s="0" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:3">
+      <x:c r="A132" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:3">
+      <x:c r="A133" s="0" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:3">
+      <x:c r="A134" s="0" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:3">
+      <x:c r="A135" s="0" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:3">
+      <x:c r="A136" s="0" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:3">
+      <x:c r="A137" s="0" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:3">
+      <x:c r="A138" s="0" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:3">
+      <x:c r="A139" s="0" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:3">
+      <x:c r="A140" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:3">
+      <x:c r="A141" s="0" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:3">
+      <x:c r="A142" s="0" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:3">
+      <x:c r="A143" s="0" t="n">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:3">
+      <x:c r="A144" s="0" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:3">
+      <x:c r="A145" s="0" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:3">
+      <x:c r="A146" s="0" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:3">
+      <x:c r="A147" s="0" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:3">
+      <x:c r="A148" s="0" t="n">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:3">
+      <x:c r="A149" s="0" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:3">
+      <x:c r="A150" s="0" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:3">
+      <x:c r="A151" s="0" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:3">
+      <x:c r="A152" s="0" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:3">
+      <x:c r="A153" s="0" t="n">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:3">
+      <x:c r="A154" s="0" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:3">
+      <x:c r="A155" s="0" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:3">
+      <x:c r="A156" s="0" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:3">
+      <x:c r="A157" s="0" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:3">
+      <x:c r="A158" s="0" t="n">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:3">
+      <x:c r="A159" s="0" t="n">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:3">
+      <x:c r="A160" s="0" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:3">
+      <x:c r="A161" s="0" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:3">
+      <x:c r="A162" s="0" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:3">
+      <x:c r="A163" s="0" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:3">
+      <x:c r="A164" s="0" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:3">
+      <x:c r="A165" s="0" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:3">
+      <x:c r="A166" s="0" t="n">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:3">
+      <x:c r="A167" s="0" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:3">
+      <x:c r="A168" s="0" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:3">
+      <x:c r="A169" s="0" t="n">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="C169" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:3">
+      <x:c r="A170" s="0" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="C170" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:3">
+      <x:c r="A171" s="0" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C171" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:3">
+      <x:c r="A172" s="0" t="n">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C172" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:3">
+      <x:c r="A173" s="0" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C173" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:3">
+      <x:c r="A174" s="0" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="C174" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:3">
+      <x:c r="A175" s="0" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:3">
+      <x:c r="A176" s="0" t="n">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="C176" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:3">
+      <x:c r="A177" s="0" t="n">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C177" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:3">
+      <x:c r="A178" s="0" t="n">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="C178" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:3">
+      <x:c r="A179" s="0" t="n">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="C179" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:3">
+      <x:c r="A180" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="C180" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:3">
+      <x:c r="A181" s="0" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="C181" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:3">
+      <x:c r="A182" s="0" t="n">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="C182" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:3">
+      <x:c r="A183" s="0" t="n">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C183" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:3">
+      <x:c r="A184" s="0" t="n">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C184" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:3">
+      <x:c r="A185" s="0" t="n">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C185" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:3">
+      <x:c r="A186" s="0" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C186" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:3">
+      <x:c r="A187" s="0" t="n">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:3">
+      <x:c r="A188" s="0" t="n">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="C188" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:3">
+      <x:c r="A189" s="0" t="n">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C189" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:3">
+      <x:c r="A190" s="0" t="n">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="C190" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:3">
+      <x:c r="A191" s="0" t="n">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C191" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:3">
+      <x:c r="A192" s="0" t="n">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="C192" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:3">
+      <x:c r="A193" s="0" t="n">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:3">
+      <x:c r="A194" s="0" t="n">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="C194" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:3">
+      <x:c r="A195" s="0" t="n">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C195" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:3">
+      <x:c r="A196" s="0" t="n">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:3">
+      <x:c r="A197" s="0" t="n">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="C197" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:3">
+      <x:c r="A198" s="0" t="n">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="C198" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:3">
+      <x:c r="A199" s="0" t="n">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:3">
+      <x:c r="A200" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="C200" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:3">
+      <x:c r="A201" s="0" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="C201" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:3">
+      <x:c r="A202" s="0" t="n">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="C202" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:3">
+      <x:c r="A203" s="0" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="C203" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:3">
+      <x:c r="A204" s="0" t="n">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C204" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:3">
+      <x:c r="A205" s="0" t="n">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="C205" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:3">
+      <x:c r="A206" s="0" t="n">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="C206" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:3">
+      <x:c r="A207" s="0" t="n">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="C207" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:3">
+      <x:c r="A208" s="0" t="n">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="C208" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:3">
+      <x:c r="A209" s="0" t="n">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="C209" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:3">
+      <x:c r="A210" s="0" t="n">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="C210" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:3">
+      <x:c r="A211" s="0" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="C211" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:3">
+      <x:c r="A212" s="0" t="n">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="C212" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:3">
+      <x:c r="A213" s="0" t="n">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="C213" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:3">
+      <x:c r="A214" s="0" t="n">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="C214" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:3">
+      <x:c r="A215" s="0" t="n">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="C215" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:3">
+      <x:c r="A216" s="0" t="n">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="C216" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:3">
+      <x:c r="A217" s="0" t="n">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="C217" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:3">
+      <x:c r="A218" s="0" t="n">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="C218" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:3">
+      <x:c r="A219" s="0" t="n">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="C219" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:3">
+      <x:c r="A220" s="0" t="n">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="C220" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:3">
+      <x:c r="A221" s="0" t="n">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="C221" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:3">
+      <x:c r="A222" s="0" t="n">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="C222" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:3">
+      <x:c r="A223" s="0" t="n">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="C223" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:3">
+      <x:c r="A224" s="0" t="n">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="C224" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:3">
+      <x:c r="A225" s="0" t="n">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="C225" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:3">
+      <x:c r="A226" s="0" t="n">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="C226" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:3">
+      <x:c r="A227" s="0" t="n">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C227" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:3">
+      <x:c r="A228" s="0" t="n">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C228" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:3">
+      <x:c r="A229" s="0" t="n">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="C229" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:3">
+      <x:c r="A230" s="0" t="n">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="C230" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:3">
+      <x:c r="A231" s="0" t="n">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C231" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:3">
+      <x:c r="A232" s="0" t="n">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="C232" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:3">
+      <x:c r="A233" s="0" t="n">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="C233" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:3">
+      <x:c r="A234" s="0" t="n">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="C234" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:3">
+      <x:c r="A235" s="0" t="n">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C235" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:3">
+      <x:c r="A236" s="0" t="n">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="C236" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:3">
+      <x:c r="A237" s="0" t="n">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="C237" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:3">
+      <x:c r="A238" s="0" t="n">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="C238" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:3">
+      <x:c r="A239" s="0" t="n">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="C239" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:3">
+      <x:c r="A240" s="0" t="n">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C240" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:3">
+      <x:c r="A241" s="0" t="n">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="C241" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:3">
+      <x:c r="A242" s="0" t="n">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="C242" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:3">
+      <x:c r="A243" s="0" t="n">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C243" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:3">
+      <x:c r="A244" s="0" t="n">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="C244" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:3">
+      <x:c r="A245" s="0" t="n">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="C245" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:3">
+      <x:c r="A246" s="0" t="n">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="C246" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247" spans="1:3">
+      <x:c r="A247" s="0" t="n">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="C247" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248" spans="1:3">
+      <x:c r="A248" s="0" t="n">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="C248" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249" spans="1:3">
+      <x:c r="A249" s="0" t="n">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="C249" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250" spans="1:3">
+      <x:c r="A250" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="C250" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:3">
+      <x:c r="A251" s="0" t="n">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="C251" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:3">
+      <x:c r="A252" s="0" t="n">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="C252" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:3">
+      <x:c r="A253" s="0" t="n">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:3">
+      <x:c r="A254" s="0" t="n">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:3">
+      <x:c r="A255" s="0" t="n">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:3">
+      <x:c r="A256" s="0" t="n">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:3">
+      <x:c r="A257" s="0" t="n">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:3">
+      <x:c r="A258" s="0" t="n">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="C258" s="0" t="s">
+        <x:v>515</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
